--- a/p908/julia908/src/Новий Аркуш Microsoft Excel.xlsx
+++ b/p908/julia908/src/Новий Аркуш Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202x\2025\Python\ProjectEuler\p908\julia908\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4048F2-4AAE-4232-917C-814348B854D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9613009A-7BF8-4738-9BED-B23705B861DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,18 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="25.77734375" customWidth="1"/>
+    <col min="2" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -371,7 +372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
@@ -383,8 +384,12 @@
         <f>C1+B2</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>B2-B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A16" si="0">A2+1</f>
         <v>3</v>
@@ -393,11 +398,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="1">C2+B3</f>
+        <f t="shared" ref="C3:C13" si="1">C2+B3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="2">B3-B2</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>D3-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -409,8 +422,20 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:F13" si="3">D4-D3</f>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>E4-E3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -422,8 +447,24 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>F5-F4</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -435,8 +476,28 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="G6">
+        <f>F6-F5</f>
+        <v>-5</v>
+      </c>
+      <c r="H6">
+        <f>G6-G5</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -448,8 +509,28 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="4">E7-E6</f>
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <f>F7-F6</f>
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H13" si="5">G7-G6</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -461,8 +542,28 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:G8" si="6">E8-E7</f>
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -474,8 +575,28 @@
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:G9" si="7">E9-E8</f>
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -487,8 +608,28 @@
         <f t="shared" si="1"/>
         <v>561</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:G10" si="8">E10-E9</f>
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="8"/>
+        <v>-21</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -500,8 +641,28 @@
         <f t="shared" si="1"/>
         <v>1171</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:G11" si="9">E11-E10</f>
+        <v>107</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -513,26 +674,100 @@
         <f t="shared" si="1"/>
         <v>2308</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>527</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:G12" si="10">E12-E11</f>
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="10"/>
+        <v>-67</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>4328</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>883</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>356</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:G13" si="11">E13-E12</f>
+        <v>146</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="11"/>
+        <v>106</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3645</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14" si="12">C13+B14</f>
+        <v>7973</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="13">B14-B13</f>
+        <v>1625</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="14">D14-D13</f>
+        <v>742</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="15">E14-E13</f>
+        <v>386</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14" si="16">F14-F13</f>
+        <v>240</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14" si="17">G14-G13</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16</v>
